--- a/app/Licenciatura_em_Agroeconomia_e_Extensao_Agraria.xlsx
+++ b/app/Licenciatura_em_Agroeconomia_e_Extensao_Agraria.xlsx
@@ -9,18 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="20150268" sheetId="2" r:id="rId5"/>
-    <sheet name="20150265" sheetId="3" r:id="rId6"/>
-    <sheet name="20150266" sheetId="4" r:id="rId7"/>
-    <sheet name="20150255" sheetId="5" r:id="rId8"/>
-    <sheet name="20150267" sheetId="6" r:id="rId9"/>
-    <sheet name="20150258" sheetId="7" r:id="rId10"/>
-    <sheet name="20150272" sheetId="8" r:id="rId11"/>
-    <sheet name="20150260" sheetId="9" r:id="rId12"/>
-    <sheet name="20150270" sheetId="10" r:id="rId13"/>
-    <sheet name="20150271" sheetId="11" r:id="rId14"/>
-    <sheet name="20150278" sheetId="12" r:id="rId15"/>
-    <sheet name="20154381" sheetId="13" r:id="rId16"/>
+    <sheet name="20150256" sheetId="2" r:id="rId5"/>
+    <sheet name="20150268" sheetId="3" r:id="rId6"/>
+    <sheet name="20150265" sheetId="4" r:id="rId7"/>
+    <sheet name="20150266" sheetId="5" r:id="rId8"/>
+    <sheet name="20150255" sheetId="6" r:id="rId9"/>
+    <sheet name="20150267" sheetId="7" r:id="rId10"/>
+    <sheet name="20150258" sheetId="8" r:id="rId11"/>
+    <sheet name="20150272" sheetId="9" r:id="rId12"/>
+    <sheet name="20150260" sheetId="10" r:id="rId13"/>
+    <sheet name="20150270" sheetId="11" r:id="rId14"/>
+    <sheet name="20150271" sheetId="12" r:id="rId15"/>
+    <sheet name="20150278" sheetId="13" r:id="rId16"/>
     <sheet name="20150263" sheetId="14" r:id="rId17"/>
     <sheet name="20150261" sheetId="15" r:id="rId18"/>
     <sheet name="20150259" sheetId="16" r:id="rId19"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -177,6 +177,42 @@
     <t>Licenciatura em Agroeconomia e Extensão Agrária</t>
   </si>
   <si>
+    <t>Veloso</t>
+  </si>
+  <si>
+    <t>Miguel Orlando</t>
+  </si>
+  <si>
+    <t>1993-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orlando Veloso</t>
+  </si>
+  <si>
+    <t>Argentina Broma Francisco</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Solteiro</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>030100595592C</t>
+  </si>
+  <si>
+    <t>+258842012143</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Nampula</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sobrinho </t>
   </si>
   <si>
@@ -192,21 +228,6 @@
     <t>Eufrasia Augosto Calodo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
     <t>04010065698C</t>
   </si>
   <si>
@@ -231,9 +252,6 @@
     <t>Olga Natalia Banze</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -261,9 +279,6 @@
     <t xml:space="preserve">Helaria Camacia </t>
   </si>
   <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
     <t>070100957847F</t>
   </si>
   <si>
@@ -288,9 +303,6 @@
     <t>Percina JosÉ Nhamuchue</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101582748P</t>
   </si>
   <si>
@@ -363,9 +375,6 @@
     <t>NatÉrcia MacuÁcua</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110302269989I</t>
   </si>
   <si>
@@ -387,9 +396,6 @@
     <t>Isabel Jose Timba</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110302012054A</t>
   </si>
   <si>
@@ -462,277 +468,256 @@
     <t>+258847977427</t>
   </si>
   <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Antonio Guilherme</t>
+    <t>Mahangue</t>
+  </si>
+  <si>
+    <t>Tomas Jacinto</t>
+  </si>
+  <si>
+    <t>1996-01-09</t>
+  </si>
+  <si>
+    <t>Jacinto Mahangue</t>
+  </si>
+  <si>
+    <t>Alda Michaque Muchanga</t>
+  </si>
+  <si>
+    <t>110100948573C</t>
+  </si>
+  <si>
+    <t>+258849230775</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Lhanguene</t>
+  </si>
+  <si>
+    <t>Maconole</t>
+  </si>
+  <si>
+    <t>Azinaida Artur Chipuzane</t>
+  </si>
+  <si>
+    <t>1997-04-27</t>
+  </si>
+  <si>
+    <t>Artur Chipuzane Maconole</t>
+  </si>
+  <si>
+    <t>Carolina Alfiado Manhique</t>
+  </si>
+  <si>
+    <t>080100677173J</t>
+  </si>
+  <si>
+    <t>+258827691715</t>
+  </si>
+  <si>
+    <t>Escola 29 de Setembro</t>
+  </si>
+  <si>
+    <t>Latifo</t>
+  </si>
+  <si>
+    <t>Regina Pina</t>
+  </si>
+  <si>
+    <t>1997-07-23</t>
+  </si>
+  <si>
+    <t>Joao Dos Santos Latifo</t>
+  </si>
+  <si>
+    <t>Cristina Nihoua</t>
+  </si>
+  <si>
+    <t>O31702882512S</t>
+  </si>
+  <si>
+    <t>+258827978201</t>
+  </si>
+  <si>
+    <t>Outra - Nampula</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t>Tasia Da Cristina</t>
+  </si>
+  <si>
+    <t>1996-07-16</t>
+  </si>
+  <si>
+    <t>David Valente Cossa</t>
+  </si>
+  <si>
+    <t>Maria Massinga</t>
+  </si>
+  <si>
+    <t>110302922832P</t>
+  </si>
+  <si>
+    <t>+258843818336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cossa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusto Pedro </t>
+  </si>
+  <si>
+    <t>1994-12-25</t>
+  </si>
+  <si>
+    <t>Pedro Celso Cossa</t>
+  </si>
+  <si>
+    <t>Cicilia Antonio Guambe</t>
+  </si>
+  <si>
+    <t>+258840225402</t>
+  </si>
+  <si>
+    <t>Chilaule</t>
+  </si>
+  <si>
+    <t>Alberto Patricio</t>
+  </si>
+  <si>
+    <t>1995-07-08</t>
+  </si>
+  <si>
+    <t>Patricio Francisco Chilaule</t>
+  </si>
+  <si>
+    <t>Ilda Dinis Cumbane</t>
+  </si>
+  <si>
+    <t>11010324683N</t>
+  </si>
+  <si>
+    <t>+258844545535</t>
+  </si>
+  <si>
+    <t>Chilambe</t>
+  </si>
+  <si>
+    <t>Nico Ricardo</t>
+  </si>
+  <si>
+    <t>1996-12-08</t>
+  </si>
+  <si>
+    <t>Ricardo Nicolau Chilambe</t>
+  </si>
+  <si>
+    <t>Atalia Baptista Cossa</t>
+  </si>
+  <si>
+    <t>110304805102A</t>
+  </si>
+  <si>
+    <t>+258847571303</t>
+  </si>
+  <si>
+    <t>Escola Sec Armando Emilio Guebuza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasco Augusto  </t>
+  </si>
+  <si>
+    <t>1992-05-20</t>
+  </si>
+  <si>
+    <t>Agusto Vasco Chauque</t>
+  </si>
+  <si>
+    <t>Helena Massango</t>
+  </si>
+  <si>
+    <t>+258840401674</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Horocoro De Ranguene </t>
+  </si>
+  <si>
+    <t>1995-03-26</t>
+  </si>
+  <si>
+    <t>Isaac Carlos</t>
+  </si>
+  <si>
+    <t>Luisinha Ranguene Kaussene</t>
+  </si>
+  <si>
+    <t>070104353131P</t>
+  </si>
+  <si>
+    <t>+258846478831</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Mafambisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bimbe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Adelia Bimbe </t>
+  </si>
+  <si>
+    <t>1996-03-21</t>
+  </si>
+  <si>
+    <t>IncÓgnito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelia Dos Anjos Agostinho Bimbe </t>
+  </si>
+  <si>
+    <t>+258823634666</t>
+  </si>
+  <si>
+    <t>Outra - Prov Inhambane</t>
+  </si>
+  <si>
+    <t>Balate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graca Andre </t>
+  </si>
+  <si>
+    <t>1993-12-17</t>
+  </si>
+  <si>
+    <t>Andre Jose Balate</t>
+  </si>
+  <si>
+    <t>Otilia Carlos Mathe</t>
+  </si>
+  <si>
+    <t>110100002852S</t>
+  </si>
+  <si>
+    <t>+258829743558</t>
+  </si>
+  <si>
+    <t>Instituto Agrario de Boane</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Jaime Alberto</t>
   </si>
   <si>
     <t>+</t>
-  </si>
-  <si>
-    <t>Mahangue</t>
-  </si>
-  <si>
-    <t>Tomas Jacinto</t>
-  </si>
-  <si>
-    <t>1996-01-09</t>
-  </si>
-  <si>
-    <t>Jacinto Mahangue</t>
-  </si>
-  <si>
-    <t>Alda Michaque Muchanga</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>110100948573C</t>
-  </si>
-  <si>
-    <t>+258849230775</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Maconole</t>
-  </si>
-  <si>
-    <t>Azinaida Artur Chipuzane</t>
-  </si>
-  <si>
-    <t>1997-04-27</t>
-  </si>
-  <si>
-    <t>Artur Chipuzane Maconole</t>
-  </si>
-  <si>
-    <t>Carolina Alfiado Manhique</t>
-  </si>
-  <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
-    <t>080100677173J</t>
-  </si>
-  <si>
-    <t>+258827691715</t>
-  </si>
-  <si>
-    <t>Escola 29 de Setembro</t>
-  </si>
-  <si>
-    <t>Latifo</t>
-  </si>
-  <si>
-    <t>Regina Pina</t>
-  </si>
-  <si>
-    <t>1997-07-23</t>
-  </si>
-  <si>
-    <t>Joao Dos Santos Latifo</t>
-  </si>
-  <si>
-    <t>Cristina Nihoua</t>
-  </si>
-  <si>
-    <t>Cidade de Nacala-Porto</t>
-  </si>
-  <si>
-    <t>O31702882512S</t>
-  </si>
-  <si>
-    <t>+258827978201</t>
-  </si>
-  <si>
-    <t>Outra - Nampula</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Tasia Da Cristina</t>
-  </si>
-  <si>
-    <t>1996-07-16</t>
-  </si>
-  <si>
-    <t>David Valente Cossa</t>
-  </si>
-  <si>
-    <t>Maria Massinga</t>
-  </si>
-  <si>
-    <t>110302922832P</t>
-  </si>
-  <si>
-    <t>+258843818336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cossa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augusto Pedro </t>
-  </si>
-  <si>
-    <t>1994-12-25</t>
-  </si>
-  <si>
-    <t>Pedro Celso Cossa</t>
-  </si>
-  <si>
-    <t>Cicilia Antonio Guambe</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>+258840225402</t>
-  </si>
-  <si>
-    <t>Chilaule</t>
-  </si>
-  <si>
-    <t>Alberto Patricio</t>
-  </si>
-  <si>
-    <t>1995-07-08</t>
-  </si>
-  <si>
-    <t>Patricio Francisco Chilaule</t>
-  </si>
-  <si>
-    <t>Ilda Dinis Cumbane</t>
-  </si>
-  <si>
-    <t>11010324683N</t>
-  </si>
-  <si>
-    <t>+258844545535</t>
-  </si>
-  <si>
-    <t>Chilambe</t>
-  </si>
-  <si>
-    <t>Nico Ricardo</t>
-  </si>
-  <si>
-    <t>1996-12-08</t>
-  </si>
-  <si>
-    <t>Ricardo Nicolau Chilambe</t>
-  </si>
-  <si>
-    <t>Atalia Baptista Cossa</t>
-  </si>
-  <si>
-    <t>110304805102A</t>
-  </si>
-  <si>
-    <t>+258847571303</t>
-  </si>
-  <si>
-    <t>Escola Sec Armando Emilio Guebuza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasco Augusto  </t>
-  </si>
-  <si>
-    <t>1992-05-20</t>
-  </si>
-  <si>
-    <t>Agusto Vasco Chauque</t>
-  </si>
-  <si>
-    <t>Helena Massango</t>
-  </si>
-  <si>
-    <t>+258840401674</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edgar Horocoro De Ranguene </t>
-  </si>
-  <si>
-    <t>1995-03-26</t>
-  </si>
-  <si>
-    <t>Isaac Carlos</t>
-  </si>
-  <si>
-    <t>Luisinha Ranguene Kaussene</t>
-  </si>
-  <si>
-    <t>Distrito de Dondo</t>
-  </si>
-  <si>
-    <t>070104353131P</t>
-  </si>
-  <si>
-    <t>+258846478831</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Mafambisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bimbe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosa Adelia Bimbe </t>
-  </si>
-  <si>
-    <t>1996-03-21</t>
-  </si>
-  <si>
-    <t>IncÓgnito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adelia Dos Anjos Agostinho Bimbe </t>
-  </si>
-  <si>
-    <t>+258823634666</t>
-  </si>
-  <si>
-    <t>Outra - Prov Inhambane</t>
-  </si>
-  <si>
-    <t>Balate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graca Andre </t>
-  </si>
-  <si>
-    <t>1993-12-17</t>
-  </si>
-  <si>
-    <t>Andre Jose Balate</t>
-  </si>
-  <si>
-    <t>Otilia Carlos Mathe</t>
-  </si>
-  <si>
-    <t>110100002852S</t>
-  </si>
-  <si>
-    <t>+258829743558</t>
-  </si>
-  <si>
-    <t>Instituto Agrario de Boane</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Jaime Alberto</t>
   </si>
   <si>
     <t>ClÁudio Elias</t>
@@ -1986,7 +1971,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150270</v>
+        <v>20150260</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2010,7 +1995,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2026,7 +2011,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2042,7 +2027,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2058,7 +2043,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2074,7 +2059,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2089,9 +2074,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2099,7 +2082,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2110,7 +2093,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2119,7 +2102,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2131,7 +2114,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2139,7 +2122,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2235,7 +2218,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2262,7 +2245,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2278,7 +2261,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2581,7 +2564,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150271</v>
+        <v>20150270</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2605,7 +2588,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2621,7 +2604,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2637,7 +2620,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2653,7 +2636,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2669,7 +2652,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2684,9 +2667,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2694,7 +2675,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2705,7 +2686,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2714,7 +2695,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2726,7 +2707,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2734,7 +2715,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2830,7 +2811,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2857,7 +2838,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2873,7 +2854,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3176,7 +3157,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150278</v>
+        <v>20150271</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3200,7 +3181,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3216,7 +3197,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3232,7 +3213,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3248,7 +3229,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3264,7 +3245,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3279,9 +3260,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3289,7 +3268,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3300,7 +3279,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3309,7 +3288,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3321,15 +3300,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2600289</v>
+      <c r="H17" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3425,7 +3404,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3452,7 +3431,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3468,7 +3447,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3719,7 +3698,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3769,7 +3750,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154381</v>
+        <v>20150278</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3793,7 +3774,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3809,7 +3790,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3824,7 +3805,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -3838,7 +3821,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -3852,7 +3837,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -3873,7 +3860,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -3882,14 +3871,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -3899,13 +3892,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>2600289</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4000,7 +3997,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4026,7 +4023,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4040,7 +4039,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4382,7 +4383,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4398,7 +4399,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4414,7 +4415,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4430,7 +4431,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4445,9 +4446,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4455,7 +4454,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4466,7 +4465,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4475,7 +4474,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4487,7 +4486,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4495,7 +4494,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4591,7 +4590,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4634,7 +4633,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4961,7 +4960,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4977,7 +4976,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4993,7 +4992,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5009,7 +5008,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5025,7 +5024,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5040,9 +5039,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5050,7 +5047,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5061,7 +5058,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5070,7 +5067,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5082,7 +5079,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5090,7 +5087,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5186,7 +5183,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5229,7 +5226,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5572,7 +5569,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5588,7 +5585,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5604,7 +5601,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5620,7 +5617,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5635,9 +5632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>165</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5645,7 +5640,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5656,7 +5651,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5665,7 +5660,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5677,7 +5672,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5685,7 +5680,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5781,7 +5776,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5824,7 +5819,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6151,7 +6146,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6167,7 +6162,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6183,7 +6178,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6199,7 +6194,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6215,7 +6210,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6230,9 +6225,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6240,7 +6233,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6251,7 +6244,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6260,7 +6253,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6272,7 +6265,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6280,7 +6273,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6376,7 +6369,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6419,7 +6412,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6746,7 +6739,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6762,7 +6755,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6778,7 +6771,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6794,7 +6787,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6810,7 +6803,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6825,9 +6818,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>181</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6835,7 +6826,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6846,7 +6837,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6855,7 +6846,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6867,7 +6858,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6971,7 +6962,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7014,7 +7005,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7341,7 +7332,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7357,7 +7348,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7373,7 +7364,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7389,7 +7380,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7405,7 +7396,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7420,9 +7411,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7430,7 +7419,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7441,7 +7430,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7450,7 +7439,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7462,7 +7451,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7470,7 +7459,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7566,7 +7555,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7609,7 +7598,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7912,7 +7901,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150268</v>
+        <v>20150256</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8015,9 +8004,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8025,7 +8012,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8036,7 +8023,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8045,7 +8032,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8057,7 +8044,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8065,7 +8052,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8161,7 +8148,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8188,7 +8175,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8204,7 +8191,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8531,7 +8518,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8547,7 +8534,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8563,7 +8550,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8579,7 +8566,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8595,7 +8582,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8610,9 +8597,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8620,7 +8605,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8631,7 +8616,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8640,7 +8625,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8652,7 +8637,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8660,7 +8645,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8756,7 +8741,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8799,7 +8784,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9126,7 +9111,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9142,7 +9127,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9158,7 +9143,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9174,7 +9159,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9190,7 +9175,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9205,9 +9190,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9215,7 +9198,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9226,7 +9209,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9235,7 +9218,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9247,7 +9230,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9351,7 +9334,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9394,7 +9377,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9721,7 +9704,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9737,7 +9720,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9753,7 +9736,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9769,7 +9752,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9785,7 +9768,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9800,9 +9783,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9810,7 +9791,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9821,7 +9802,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9830,7 +9811,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9842,7 +9823,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9850,7 +9831,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9946,7 +9927,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9989,7 +9970,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10316,7 +10297,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10332,7 +10313,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10348,7 +10329,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10364,7 +10345,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10380,7 +10361,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10395,9 +10376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10405,7 +10384,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10416,7 +10395,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10425,7 +10404,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10437,7 +10416,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10541,7 +10520,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10584,7 +10563,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10911,7 +10890,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10927,7 +10906,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10943,7 +10922,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10959,7 +10938,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10975,7 +10954,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10990,9 +10969,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11000,7 +10977,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11011,7 +10988,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11020,7 +10997,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11032,7 +11009,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11040,7 +11017,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11136,7 +11113,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11179,7 +11156,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11506,7 +11483,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11522,7 +11499,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11713,7 +11690,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12079,7 +12056,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12095,7 +12072,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12111,7 +12088,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12127,7 +12104,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12143,7 +12120,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12158,9 +12135,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12168,7 +12143,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12179,7 +12154,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12188,7 +12163,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12200,7 +12175,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12208,7 +12183,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12304,7 +12279,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12347,7 +12322,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12706,7 +12681,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150265</v>
+        <v>20150268</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12730,7 +12705,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12746,7 +12721,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12762,7 +12737,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12778,7 +12753,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12794,7 +12769,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12809,9 +12784,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12819,7 +12792,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12830,7 +12803,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12839,7 +12812,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12851,7 +12824,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12859,7 +12832,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12955,7 +12928,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12982,7 +12955,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12998,7 +12971,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13301,7 +13274,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150266</v>
+        <v>20150265</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13325,7 +13298,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13341,7 +13314,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13357,7 +13330,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13373,7 +13346,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13389,7 +13362,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13404,9 +13377,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13414,7 +13385,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13425,7 +13396,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13434,7 +13405,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13446,7 +13417,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13454,7 +13425,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13550,7 +13521,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13577,7 +13548,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13593,7 +13564,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13896,7 +13867,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150255</v>
+        <v>20150266</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13920,7 +13891,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13936,7 +13907,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13952,7 +13923,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13968,7 +13939,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13984,7 +13955,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13999,9 +13970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14009,7 +13978,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14020,7 +13989,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14029,7 +13998,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14041,7 +14010,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14049,7 +14018,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14145,7 +14114,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14172,7 +14141,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14188,7 +14157,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14491,7 +14460,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150267</v>
+        <v>20150255</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14515,7 +14484,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14531,7 +14500,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14547,7 +14516,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14563,7 +14532,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14579,7 +14548,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14594,9 +14563,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14604,7 +14571,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14615,7 +14582,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14624,7 +14591,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14636,7 +14603,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14644,7 +14611,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14740,7 +14707,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14767,7 +14734,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14783,7 +14750,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15086,7 +15053,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150258</v>
+        <v>20150267</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15110,7 +15077,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15126,7 +15093,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15142,7 +15109,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15158,7 +15125,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15174,7 +15141,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15189,9 +15156,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15199,7 +15164,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15210,7 +15175,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15219,7 +15184,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15231,7 +15196,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15239,7 +15204,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15335,7 +15300,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15362,7 +15327,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15378,7 +15343,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15681,7 +15646,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150272</v>
+        <v>20150258</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15705,7 +15670,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15721,7 +15686,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15737,7 +15702,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15753,7 +15718,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15769,7 +15734,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15784,9 +15749,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15794,7 +15757,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15805,7 +15768,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15814,7 +15777,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15826,7 +15789,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15834,7 +15797,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15930,7 +15893,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15957,7 +15920,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15973,7 +15936,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16276,7 +16239,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150260</v>
+        <v>20150272</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16300,7 +16263,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16316,7 +16279,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16332,7 +16295,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16348,7 +16311,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16364,7 +16327,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16379,9 +16342,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16389,7 +16350,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16400,7 +16361,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16409,7 +16370,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16421,7 +16382,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16429,7 +16390,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16525,7 +16486,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16552,7 +16513,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16568,7 +16529,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
